--- a/biology/Botanique/Euphorbia_grandicornis/Euphorbia_grandicornis.xlsx
+++ b/biology/Botanique/Euphorbia_grandicornis/Euphorbia_grandicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia grandicornis est une espèce de plantes à fleurs de la famille des Euphorbiaceae. C'est une des nombreuses espèces de plante arbustive du genre Euphorbia.
 Elle est originaire du Kenya, Tanganika et Natal
-[1].
+.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grandicornis = A grandes cornes
 </t>
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste.
-C'est une des nombreuses espèces d’Euphorbia parmi les plus décoratives. Son tronc élancé est formé de parties triangulaires ou quadrangulaires d'un vert vif, croissant en étages successifs [1].
-Les arêtes sont fortement creusées, leur bord est dur muni de couples d'épines très piquantes. Elles ont de 2 à 5 cm de long brun clair, plus tard gris [1].
+C'est une des nombreuses espèces d’Euphorbia parmi les plus décoratives. Son tronc élancé est formé de parties triangulaires ou quadrangulaires d'un vert vif, croissant en étages successifs .
+Les arêtes sont fortement creusées, leur bord est dur muni de couples d'épines très piquantes. Elles ont de 2 à 5 cm de long brun clair, plus tard gris .
 Au naturel, elle forme des fourrés de plusieurs mètres de large et de 2m de haut.
 En culture, les pousses se succèdent par étages annuels en forme de trigone.
 </t>
@@ -579,7 +595,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture est facile avec un emplacement chaud et ensoleillé et une température hivernale supérieure à 12 °C.
 Multiplication facile par bouture. Attention à la sève (latex blanc ) qui est irritante.
